--- a/templates/AutomationOrg/RSTK-9522-Labor WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9522-Labor WO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11431B-A430-4967-8A48-E5BD70B071E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD027E5-58A9-4731-BD18-C6A1195B131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Site</t>
   </si>
@@ -218,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -628,32 +628,9 @@
         <v>8</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -924,8 +901,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
